--- a/public/specialties.xlsx
+++ b/public/specialties.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Spécialité</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>BTS IG</t>
+  </si>
+  <si>
+    <t>Besoin TP Spécifique par Groupe</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -389,6 +392,7 @@
     <col min="1" max="1" width="30.77734375" customWidth="1"/>
     <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -401,6 +405,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -412,6 +419,9 @@
       <c r="C2" s="2">
         <v>879</v>
       </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -423,6 +433,9 @@
       <c r="C3" s="2">
         <v>879</v>
       </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -434,6 +447,9 @@
       <c r="C4" s="2">
         <v>333</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -445,6 +461,9 @@
       <c r="C5" s="2">
         <v>688</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -455,6 +474,9 @@
       </c>
       <c r="C6" s="2">
         <v>1149</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
